--- a/(WALMART)-Debt Modeling.xlsx
+++ b/(WALMART)-Debt Modeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d2e6b5b813af4a/Área de Trabalho/Projects/3Statementmodel - Debt Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1802" documentId="13_ncr:1_{6F4B13BA-9C51-4262-B64D-FC8E7DD0FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C283A0F-0B00-4735-B238-B022AF4F89AE}"/>
+  <xr:revisionPtr revIDLastSave="1804" documentId="13_ncr:1_{6F4B13BA-9C51-4262-B64D-FC8E7DD0FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9E18AB-3E03-4027-B7E1-E6BBB12A7794}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly Cash Flow" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="232">
   <si>
     <t>Cash</t>
   </si>
@@ -733,19 +733,10 @@
     <t>Taxes</t>
   </si>
   <si>
-    <t>Bus 1</t>
-  </si>
-  <si>
     <t>Levels</t>
   </si>
   <si>
     <t>Actual</t>
-  </si>
-  <si>
-    <t>Cumulative Levels</t>
-  </si>
-  <si>
-    <t>Cumulative Actual</t>
   </si>
   <si>
     <t>Level 1</t>
@@ -1243,7 +1234,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1724,13 +1715,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
@@ -1987,7 +1971,7 @@
                   <c:v>30636.163975578802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33019.214582325847</c:v>
+                  <c:v>33019.214582325862</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35206.20216250699</c:v>
@@ -2041,13 +2025,13 @@
                   <c:v>-20769.38404095385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22229.204838176447</c:v>
+                  <c:v>-22229.204838176443</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-23791.632277743436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25463.878288045773</c:v>
+                  <c:v>-25463.878288045784</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-27253.661703362079</c:v>
@@ -2098,13 +2082,13 @@
                   <c:v>-10151.49544899186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10744.750947128647</c:v>
+                  <c:v>-10744.750947128661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10598.036834183486</c:v>
+                  <c:v>-10598.036834183484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10749.681805178419</c:v>
+                  <c:v>-10749.681805178427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,16 +2176,16 @@
                   <c:v>10167.193354195078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10805.707649352618</c:v>
+                  <c:v>10805.707649352637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11475.526586987526</c:v>
+                  <c:v>11475.526586987529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12187.343187256536</c:v>
+                  <c:v>12187.343187256531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12948.941651758836</c:v>
+                  <c:v>12948.941651758823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,7 +8593,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="431006" y="868838"/>
+              <a:off x="431006" y="754538"/>
               <a:ext cx="8870474" cy="3283108"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9498,7 +9482,7 @@
   </sheetPr>
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -10648,7 +10632,7 @@
       </c>
       <c r="H38" s="92">
         <f ca="1">H65*H10</f>
-        <v>14869.770173589646</v>
+        <v>14869.77017358965</v>
       </c>
       <c r="I38" s="92">
         <f ca="1">I65*I10</f>
@@ -10656,7 +10640,7 @@
       </c>
       <c r="J38" s="92">
         <f ca="1">J65*J10</f>
-        <v>17033.538564601298</v>
+        <v>17033.538564601287</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10694,7 +10678,7 @@
       </c>
       <c r="J39" s="94">
         <f t="shared" ca="1" si="30"/>
-        <v>32664.864424381758</v>
+        <v>32664.864424381769</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -10841,7 +10825,7 @@
       </c>
       <c r="J43" s="95">
         <f t="shared" ca="1" si="32"/>
-        <v>27085.652839211547</v>
+        <v>27085.652839211562</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -10876,7 +10860,7 @@
       </c>
       <c r="J44" s="88">
         <f ca="1">J43*J14</f>
-        <v>7638.9184222231397</v>
+        <v>7638.9184222231443</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -10911,7 +10895,7 @@
       </c>
       <c r="J45" s="78">
         <f ca="1">J43*J15</f>
-        <v>236.72032647185625</v>
+        <v>236.7203264718564</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10949,7 +10933,7 @@
       </c>
       <c r="J46" s="94">
         <f t="shared" ca="1" si="33"/>
-        <v>19446.734416988409</v>
+        <v>19446.734416988416</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -10996,11 +10980,11 @@
       </c>
       <c r="H49" s="99">
         <f t="shared" ca="1" si="34"/>
-        <v>101082.92885722811</v>
+        <v>101082.92885722814</v>
       </c>
       <c r="I49" s="99">
         <f t="shared" ca="1" si="34"/>
-        <v>106590.35492170892</v>
+        <v>106590.35492170893</v>
       </c>
       <c r="J49" s="99">
         <f t="shared" ca="1" si="34"/>
@@ -11033,7 +11017,7 @@
       </c>
       <c r="J50" s="99">
         <f t="shared" ca="1" si="35"/>
-        <v>19446.734416988409</v>
+        <v>19446.734416988416</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11071,7 +11055,7 @@
       </c>
       <c r="J51" s="99">
         <f ca="1">J46*J16</f>
-        <v>8816.8051624286527</v>
+        <v>8816.8051624286545</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11101,11 +11085,11 @@
       </c>
       <c r="H52" s="95">
         <f t="shared" ca="1" si="37"/>
-        <v>110852.72378082509</v>
+        <v>110852.72378082512</v>
       </c>
       <c r="I52" s="95">
         <f t="shared" ca="1" si="37"/>
-        <v>116802.77656272982</v>
+        <v>116802.77656272984</v>
       </c>
       <c r="J52" s="95">
         <f t="shared" ca="1" si="37"/>
@@ -11198,19 +11182,19 @@
       </c>
       <c r="G58" s="101">
         <f ca="1">G116</f>
-        <v>10805.707649352618</v>
+        <v>10805.707649352637</v>
       </c>
       <c r="H58" s="101">
         <f ca="1">H116</f>
-        <v>11475.526586987544</v>
+        <v>11475.526586987547</v>
       </c>
       <c r="I58" s="101">
         <f ca="1">I116</f>
-        <v>12187.343187256558</v>
+        <v>12187.343187256545</v>
       </c>
       <c r="J58" s="101">
         <f ca="1">J116</f>
-        <v>12948.941651758845</v>
+        <v>12948.941651758827</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11384,15 +11368,15 @@
       </c>
       <c r="H63" s="103">
         <f t="shared" ca="1" si="41"/>
-        <v>96362.68593035634</v>
+        <v>96362.685930356354</v>
       </c>
       <c r="I63" s="103">
         <f t="shared" ca="1" si="41"/>
-        <v>101152.7604977938</v>
+        <v>101152.76049779379</v>
       </c>
       <c r="J63" s="103">
         <f t="shared" ca="1" si="41"/>
-        <v>106196.52982782296</v>
+        <v>106196.52982782293</v>
       </c>
       <c r="K63" s="14"/>
     </row>
@@ -11434,7 +11418,7 @@
       </c>
       <c r="G65" s="105">
         <f t="shared" ca="1" si="42"/>
-        <v>126934.4708296739</v>
+        <v>126934.47082967387</v>
       </c>
       <c r="H65" s="105">
         <f t="shared" ca="1" si="42"/>
@@ -11442,7 +11426,7 @@
       </c>
       <c r="I65" s="105">
         <f t="shared" ca="1" si="42"/>
-        <v>145405.28729184478</v>
+        <v>145405.28729184484</v>
       </c>
       <c r="J65" s="105">
         <f t="shared" ca="1" si="42"/>
@@ -11548,7 +11532,7 @@
       </c>
       <c r="G68" s="107">
         <f t="shared" ca="1" si="45"/>
-        <v>191646.4708296739</v>
+        <v>191646.47082967387</v>
       </c>
       <c r="H68" s="107">
         <f t="shared" ca="1" si="45"/>
@@ -11556,7 +11540,7 @@
       </c>
       <c r="I68" s="107">
         <f t="shared" ca="1" si="45"/>
-        <v>210117.28729184478</v>
+        <v>210117.28729184484</v>
       </c>
       <c r="J68" s="107">
         <f t="shared" ca="1" si="45"/>
@@ -11591,11 +11575,11 @@
       </c>
       <c r="H69" s="109">
         <f t="shared" ca="1" si="46"/>
-        <v>296931.01886418398</v>
+        <v>296931.01886418404</v>
       </c>
       <c r="I69" s="109">
         <f t="shared" ref="I69" ca="1" si="47">I68+I63</f>
-        <v>311270.04778963857</v>
+        <v>311270.04778963863</v>
       </c>
       <c r="J69" s="109">
         <f t="shared" ref="J69" ca="1" si="48">J68+J63</f>
@@ -12114,11 +12098,11 @@
       </c>
       <c r="H86" s="115">
         <f ca="1">H52</f>
-        <v>110852.72378082509</v>
+        <v>110852.72378082512</v>
       </c>
       <c r="I86" s="115">
         <f ca="1">I52</f>
-        <v>116802.77656272982</v>
+        <v>116802.77656272984</v>
       </c>
       <c r="J86" s="115">
         <f ca="1">J52</f>
@@ -12150,15 +12134,15 @@
       </c>
       <c r="H87" s="116">
         <f ca="1">H86+H109+H110</f>
-        <v>106590.3549217089</v>
+        <v>106590.35492170892</v>
       </c>
       <c r="I87" s="116">
         <f ca="1">I86+I109+I110</f>
-        <v>110583.25065003979</v>
+        <v>110583.2506500398</v>
       </c>
       <c r="J87" s="116">
         <f ca="1">J86+J109+J110</f>
-        <v>116019.3032618498</v>
+        <v>116019.30326184978</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="102"/>
@@ -12327,7 +12311,7 @@
       </c>
       <c r="J94" s="78">
         <f t="shared" ca="1" si="56"/>
-        <v>19446.734416988409</v>
+        <v>19446.734416988416</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12392,7 +12376,7 @@
       </c>
       <c r="H96" s="78">
         <f t="shared" ca="1" si="57"/>
-        <v>14869.770173589646</v>
+        <v>14869.77017358965</v>
       </c>
       <c r="I96" s="78">
         <f t="shared" ca="1" si="57"/>
@@ -12400,7 +12384,7 @@
       </c>
       <c r="J96" s="78">
         <f t="shared" ca="1" si="57"/>
-        <v>17033.538564601298</v>
+        <v>17033.538564601287</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12667,7 +12651,7 @@
       </c>
       <c r="H105" s="78">
         <f t="shared" ca="1" si="61"/>
-        <v>-23791.63227774344</v>
+        <v>-23791.632277743436</v>
       </c>
       <c r="I105" s="78">
         <f t="shared" ca="1" si="61"/>
@@ -12675,7 +12659,7 @@
       </c>
       <c r="J105" s="78">
         <f t="shared" ca="1" si="61"/>
-        <v>-27253.661703362061</v>
+        <v>-27253.661703362079</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12705,7 +12689,7 @@
       </c>
       <c r="H106" s="120">
         <f t="shared" ca="1" si="62"/>
-        <v>-23791.63227774344</v>
+        <v>-23791.632277743436</v>
       </c>
       <c r="I106" s="120">
         <f t="shared" ca="1" si="62"/>
@@ -12713,7 +12697,7 @@
       </c>
       <c r="J106" s="120">
         <f t="shared" ca="1" si="62"/>
-        <v>-27253.661703362061</v>
+        <v>-27253.661703362079</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12817,19 +12801,19 @@
       </c>
       <c r="G110" s="78">
         <f t="shared" ref="G110:J110" ca="1" si="65">G147</f>
-        <v>-4326.7043483444795</v>
+        <v>-4326.7043483444977</v>
       </c>
       <c r="H110" s="78">
         <f t="shared" ca="1" si="65"/>
-        <v>-4262.3688591161736</v>
+        <v>-4262.3688591161917</v>
       </c>
       <c r="I110" s="78">
         <f t="shared" ca="1" si="65"/>
-        <v>-6219.5259126900401</v>
+        <v>-6219.5259126900328</v>
       </c>
       <c r="J110" s="78">
         <f t="shared" ca="1" si="65"/>
-        <v>-5193.8766427497758</v>
+        <v>-5193.8766427497649</v>
       </c>
     </row>
     <row r="111" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12864,7 +12848,7 @@
       </c>
       <c r="J111" s="78">
         <f ca="1">-J51</f>
-        <v>-8816.8051624286527</v>
+        <v>-8816.8051624286545</v>
       </c>
     </row>
     <row r="112" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12890,19 +12874,19 @@
       </c>
       <c r="G112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10151.495448991842</v>
+        <v>-10151.49544899186</v>
       </c>
       <c r="H112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10744.750947128628</v>
+        <v>-10744.750947128647</v>
       </c>
       <c r="I112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10598.036834183493</v>
+        <v>-10598.036834183486</v>
       </c>
       <c r="J112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10749.681805178428</v>
+        <v>-10749.681805178419</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12940,19 +12924,19 @@
       </c>
       <c r="G114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>638.51429515755808</v>
+        <v>638.51429515753989</v>
       </c>
       <c r="H114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>669.81893763492189</v>
+        <v>669.81893763490734</v>
       </c>
       <c r="I114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>711.81660026900317</v>
+        <v>711.81660026901045</v>
       </c>
       <c r="J114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>761.59846450230907</v>
+        <v>761.59846450229998</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12981,15 +12965,15 @@
       </c>
       <c r="H115" s="78">
         <f t="shared" ca="1" si="68"/>
-        <v>10805.707649352618</v>
+        <v>10805.707649352637</v>
       </c>
       <c r="I115" s="78">
         <f t="shared" ca="1" si="68"/>
-        <v>11475.526586987544</v>
+        <v>11475.526586987547</v>
       </c>
       <c r="J115" s="78">
         <f t="shared" ca="1" si="68"/>
-        <v>12187.343187256558</v>
+        <v>12187.343187256545</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13015,19 +12999,19 @@
       </c>
       <c r="G116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>10805.707649352637</v>
+        <v>10805.707649352618</v>
       </c>
       <c r="H116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>11475.52658698754</v>
+        <v>11475.526586987544</v>
       </c>
       <c r="I116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>12187.343187256547</v>
+        <v>12187.343187256558</v>
       </c>
       <c r="J116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>12948.941651758867</v>
+        <v>12948.941651758845</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -13065,7 +13049,7 @@
       </c>
       <c r="G118" s="119">
         <f t="shared" ca="1" si="70"/>
-        <v>1.8189894035458565E-11</v>
+        <v>-1.8189894035458565E-11</v>
       </c>
       <c r="H118" s="119">
         <f t="shared" ca="1" si="70"/>
@@ -13077,7 +13061,7 @@
       </c>
       <c r="J118" s="119">
         <f t="shared" ca="1" si="70"/>
-        <v>2.1827872842550278E-11</v>
+        <v>1.8189894035458565E-11</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13175,7 +13159,7 @@
       </c>
       <c r="G124" s="78">
         <f ca="1">G129*G21</f>
-        <v>22229.204838176443</v>
+        <v>22229.204838176447</v>
       </c>
       <c r="H124" s="78">
         <f ca="1">H129*H21</f>
@@ -13183,7 +13167,7 @@
       </c>
       <c r="I124" s="78">
         <f ca="1">I129*I21</f>
-        <v>25463.878288045784</v>
+        <v>25463.878288045773</v>
       </c>
       <c r="J124" s="78">
         <f ca="1">J129*J21</f>
@@ -13265,7 +13249,7 @@
       </c>
       <c r="H128" s="92">
         <f t="shared" ca="1" si="72"/>
-        <v>135923.11804945642</v>
+        <v>135923.11804945645</v>
       </c>
       <c r="I128" s="92">
         <f t="shared" ca="1" si="72"/>
@@ -13273,7 +13257,7 @@
       </c>
       <c r="J128" s="92">
         <f t="shared" ca="1" si="72"/>
-        <v>166707.81215307472</v>
+        <v>166707.81215307466</v>
       </c>
     </row>
     <row r="129" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13294,7 +13278,7 @@
       </c>
       <c r="H129" s="92">
         <f ca="1">H38</f>
-        <v>14869.770173589646</v>
+        <v>14869.77017358965</v>
       </c>
       <c r="I129" s="92">
         <f ca="1">I38</f>
@@ -13302,7 +13286,7 @@
       </c>
       <c r="J129" s="92">
         <f ca="1">J38</f>
-        <v>17033.538564601298</v>
+        <v>17033.538564601287</v>
       </c>
     </row>
     <row r="130" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13325,7 +13309,7 @@
       </c>
       <c r="H130" s="126">
         <f ca="1">SUM(H128:H129)</f>
-        <v>150792.88822304606</v>
+        <v>150792.88822304609</v>
       </c>
       <c r="I130" s="126">
         <f ca="1">SUM(I128:I129)</f>
@@ -13333,7 +13317,7 @@
       </c>
       <c r="J130" s="126">
         <f ca="1">SUM(J128:J129)</f>
-        <v>183741.35071767602</v>
+        <v>183741.35071767593</v>
       </c>
     </row>
     <row r="131" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13372,7 +13356,7 @@
       </c>
       <c r="H132" s="92">
         <f ca="1">H125-H130</f>
-        <v>135856.33293382768</v>
+        <v>135856.33293382765</v>
       </c>
       <c r="I132" s="92">
         <f ca="1">I125-I130</f>
@@ -13380,7 +13364,7 @@
       </c>
       <c r="J132" s="92">
         <f ca="1">J125-J130</f>
-        <v>155625.41043060555</v>
+        <v>155625.41043060564</v>
       </c>
     </row>
     <row r="133" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13457,15 +13441,15 @@
       </c>
       <c r="H137" s="182">
         <f t="shared" ca="1" si="73"/>
-        <v>10805.707649352637</v>
+        <v>10805.707649352618</v>
       </c>
       <c r="I137" s="182">
         <f t="shared" ca="1" si="73"/>
-        <v>11475.52658698754</v>
+        <v>11475.526586987544</v>
       </c>
       <c r="J137" s="182">
         <f t="shared" ca="1" si="73"/>
-        <v>12187.343187256547</v>
+        <v>12187.343187256558</v>
       </c>
     </row>
     <row r="138" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13491,7 +13475,7 @@
       </c>
       <c r="H138" s="182">
         <f t="shared" ca="1" si="74"/>
-        <v>11414.56988476355</v>
+        <v>11414.569884763554</v>
       </c>
       <c r="I138" s="182">
         <f t="shared" ca="1" si="74"/>
@@ -13499,7 +13483,7 @@
       </c>
       <c r="J138" s="182">
         <f t="shared" ca="1" si="74"/>
-        <v>11511.280269680738</v>
+        <v>11511.280269680719</v>
       </c>
     </row>
     <row r="139" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13588,15 +13572,15 @@
       </c>
       <c r="H141" s="90">
         <f t="shared" ca="1" si="77"/>
-        <v>4262.3688591161881</v>
+        <v>4262.3688591161736</v>
       </c>
       <c r="I141" s="90">
         <f t="shared" ca="1" si="77"/>
-        <v>6219.5259126900364</v>
+        <v>6219.5259126900401</v>
       </c>
       <c r="J141" s="90">
         <f t="shared" ca="1" si="77"/>
-        <v>5193.8766427497831</v>
+        <v>5193.8766427497758</v>
       </c>
     </row>
     <row r="142" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13736,15 +13720,15 @@
       </c>
       <c r="H147" s="92">
         <f t="shared" ca="1" si="80"/>
-        <v>-4262.3688591161881</v>
+        <v>-4262.3688591161736</v>
       </c>
       <c r="I147" s="92">
         <f t="shared" ca="1" si="80"/>
-        <v>-6219.5259126900364</v>
+        <v>-6219.5259126900401</v>
       </c>
       <c r="J147" s="92">
         <f t="shared" ca="1" si="80"/>
-        <v>-5193.8766427497831</v>
+        <v>-5193.8766427497758</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14930,19 +14914,19 @@
       </c>
       <c r="G197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-10805.707649352637</v>
+        <v>-10805.707649352618</v>
       </c>
       <c r="H197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-11475.52658698754</v>
+        <v>-11475.526586987547</v>
       </c>
       <c r="I197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-12187.343187256545</v>
+        <v>-12187.343187256552</v>
       </c>
       <c r="J197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-12948.941651758865</v>
+        <v>-12948.941651758849</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15099,7 +15083,7 @@
       </c>
       <c r="G205" s="78">
         <f t="shared" ca="1" si="102"/>
-        <v>126934.4708296739</v>
+        <v>126934.47082967387</v>
       </c>
       <c r="H205" s="78">
         <f t="shared" ca="1" si="102"/>
@@ -15107,7 +15091,7 @@
       </c>
       <c r="I205" s="78">
         <f t="shared" ca="1" si="102"/>
-        <v>145405.28729184478</v>
+        <v>145405.28729184484</v>
       </c>
       <c r="J205" s="78">
         <f t="shared" ca="1" si="102"/>
@@ -15133,7 +15117,7 @@
       </c>
       <c r="G206" s="78">
         <f t="shared" ca="1" si="103"/>
-        <v>95200.853122255416</v>
+        <v>95200.853122255401</v>
       </c>
       <c r="H206" s="78">
         <f t="shared" ca="1" si="103"/>
@@ -15141,7 +15125,7 @@
       </c>
       <c r="I206" s="78">
         <f t="shared" ca="1" si="103"/>
-        <v>109053.96546888359</v>
+        <v>109053.96546888363</v>
       </c>
       <c r="J206" s="78">
         <f t="shared" ca="1" si="103"/>
@@ -16192,15 +16176,15 @@
       </c>
       <c r="H256" s="188">
         <f t="shared" ca="1" si="128"/>
-        <v>0.84715452006979985</v>
+        <v>0.84715452006979997</v>
       </c>
       <c r="I256" s="188">
         <f t="shared" ca="1" si="128"/>
-        <v>0.84630537839853681</v>
+        <v>0.8463053783985367</v>
       </c>
       <c r="J256" s="188">
         <f t="shared" ca="1" si="128"/>
-        <v>0.84633081546277844</v>
+        <v>0.84633081546277822</v>
       </c>
       <c r="K256" s="226" t="s">
         <v>207</v>
@@ -16309,15 +16293,15 @@
       </c>
       <c r="H260" s="188">
         <f t="shared" ca="1" si="129"/>
-        <v>0.82872314013235593</v>
+        <v>0.82872314013235582</v>
       </c>
       <c r="I260" s="188">
         <f t="shared" ca="1" si="129"/>
-        <v>0.83821741118919046</v>
+        <v>0.83821741118919024</v>
       </c>
       <c r="J260" s="188">
         <f t="shared" ca="1" si="129"/>
-        <v>0.8234790602486397</v>
+        <v>0.82347906024863982</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16818,7 +16802,7 @@
   </sheetPr>
   <dimension ref="B1:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16870,7 +16854,7 @@
     </row>
     <row r="3" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="231" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" s="231"/>
       <c r="D3" s="231"/>
@@ -16932,23 +16916,23 @@
       <c r="Q6" s="227" t="s">
         <v>209</v>
       </c>
-      <c r="T6" s="253">
+      <c r="T6" s="246">
         <f ca="1">'Yearly Cash Flow'!F103</f>
         <v>30636.163975578802</v>
       </c>
-      <c r="U6" s="253">
+      <c r="U6" s="246">
         <f ca="1">'Yearly Cash Flow'!G103</f>
-        <v>33019.214582325847</v>
-      </c>
-      <c r="V6" s="253">
+        <v>33019.214582325862</v>
+      </c>
+      <c r="V6" s="246">
         <f ca="1">'Yearly Cash Flow'!H103</f>
         <v>35206.20216250699</v>
       </c>
-      <c r="W6" s="253">
+      <c r="W6" s="246">
         <f ca="1">'Yearly Cash Flow'!I103</f>
         <v>36773.731722498269</v>
       </c>
-      <c r="X6" s="253">
+      <c r="X6" s="246">
         <f ca="1">'Yearly Cash Flow'!J103</f>
         <v>38764.941973042798</v>
       </c>
@@ -16960,23 +16944,23 @@
       <c r="Q7" s="227" t="s">
         <v>210</v>
       </c>
-      <c r="T7" s="253">
+      <c r="T7" s="246">
         <f ca="1">'Yearly Cash Flow'!F106</f>
         <v>-20769.38404095385</v>
       </c>
-      <c r="U7" s="253">
+      <c r="U7" s="246">
         <f ca="1">'Yearly Cash Flow'!G106</f>
-        <v>-22229.204838176447</v>
-      </c>
-      <c r="V7" s="253">
+        <v>-22229.204838176443</v>
+      </c>
+      <c r="V7" s="246">
         <f ca="1">'Yearly Cash Flow'!H106</f>
         <v>-23791.632277743436</v>
       </c>
-      <c r="W7" s="253">
+      <c r="W7" s="246">
         <f ca="1">'Yearly Cash Flow'!I106</f>
-        <v>-25463.878288045773</v>
-      </c>
-      <c r="X7" s="253">
+        <v>-25463.878288045784</v>
+      </c>
+      <c r="X7" s="246">
         <f ca="1">'Yearly Cash Flow'!J106</f>
         <v>-27253.661703362079</v>
       </c>
@@ -16988,25 +16972,25 @@
       <c r="Q8" s="227" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="253">
+      <c r="T8" s="246">
         <f ca="1">'Yearly Cash Flow'!F112</f>
         <v>-9566.5865804298737</v>
       </c>
-      <c r="U8" s="253">
+      <c r="U8" s="246">
         <f ca="1">'Yearly Cash Flow'!G112</f>
         <v>-10151.49544899186</v>
       </c>
-      <c r="V8" s="253">
+      <c r="V8" s="246">
         <f ca="1">'Yearly Cash Flow'!H112</f>
-        <v>-10744.750947128647</v>
-      </c>
-      <c r="W8" s="253">
+        <v>-10744.750947128661</v>
+      </c>
+      <c r="W8" s="246">
         <f ca="1">'Yearly Cash Flow'!I112</f>
-        <v>-10598.036834183486</v>
-      </c>
-      <c r="X8" s="253">
+        <v>-10598.036834183484</v>
+      </c>
+      <c r="X8" s="246">
         <f ca="1">'Yearly Cash Flow'!J112</f>
-        <v>-10749.681805178419</v>
+        <v>-10749.681805178427</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -17019,26 +17003,26 @@
       </c>
       <c r="U9" s="236">
         <f t="shared" ref="U9:X9" ca="1" si="1">SUM(U6:U8)</f>
-        <v>638.51429515753989</v>
+        <v>638.51429515755808</v>
       </c>
       <c r="V9" s="236">
         <f t="shared" ca="1" si="1"/>
-        <v>669.81893763490734</v>
+        <v>669.81893763489279</v>
       </c>
       <c r="W9" s="236">
         <f t="shared" ca="1" si="1"/>
-        <v>711.81660026901045</v>
+        <v>711.81660026900136</v>
       </c>
       <c r="X9" s="236">
         <f t="shared" ca="1" si="1"/>
-        <v>761.59846450229998</v>
+        <v>761.5984645022927</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q10" s="227" t="s">
         <v>212</v>
       </c>
-      <c r="S10" s="253">
+      <c r="S10" s="246">
         <f>'Yearly Cash Flow'!E116</f>
         <v>9867</v>
       </c>
@@ -17048,19 +17032,19 @@
       </c>
       <c r="U10" s="237">
         <f t="shared" ref="U10:X10" ca="1" si="2">+T10+U9</f>
-        <v>10805.707649352618</v>
+        <v>10805.707649352637</v>
       </c>
       <c r="V10" s="237">
         <f t="shared" ca="1" si="2"/>
-        <v>11475.526586987526</v>
+        <v>11475.526586987529</v>
       </c>
       <c r="W10" s="237">
         <f t="shared" ca="1" si="2"/>
-        <v>12187.343187256536</v>
+        <v>12187.343187256531</v>
       </c>
       <c r="X10" s="237">
         <f t="shared" ca="1" si="2"/>
-        <v>12948.941651758836</v>
+        <v>12948.941651758823</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -17069,7 +17053,7 @@
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12" s="239"/>
       <c r="Q12" s="240" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="T12" s="241"/>
       <c r="U12" s="241"/>
@@ -17093,7 +17077,7 @@
       <c r="Q13" s="227" t="s">
         <v>213</v>
       </c>
-      <c r="T13" s="253">
+      <c r="T13" s="246">
         <f>'Yearly Cash Flow'!F33</f>
         <v>687012.5</v>
       </c>
@@ -17105,7 +17089,7 @@
       <c r="Q14" s="243" t="s">
         <v>214</v>
       </c>
-      <c r="T14" s="253">
+      <c r="T14" s="246">
         <f>-'Yearly Cash Flow'!F34</f>
         <v>-505882.30848651653</v>
       </c>
@@ -17114,7 +17098,7 @@
       <c r="Q15" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="253">
+      <c r="T15" s="246">
         <f>'Yearly Cash Flow'!F35</f>
         <v>181130.19151348347</v>
       </c>
@@ -17123,7 +17107,7 @@
       <c r="Q16" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="T16" s="253">
+      <c r="T16" s="246">
         <f>-'Yearly Cash Flow'!F36</f>
         <v>-141011.00626669161</v>
       </c>
@@ -17135,7 +17119,7 @@
       <c r="Q17" s="227" t="s">
         <v>215</v>
       </c>
-      <c r="T17" s="253">
+      <c r="T17" s="246">
         <f ca="1">-'Yearly Cash Flow'!F38</f>
         <v>-12980.865025596155</v>
       </c>
@@ -17152,7 +17136,7 @@
       <c r="Q18" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="253">
+      <c r="T18" s="246">
         <f ca="1">'Yearly Cash Flow'!F39</f>
         <v>27138.32022119571</v>
       </c>
@@ -17169,7 +17153,7 @@
       <c r="Q19" s="227" t="s">
         <v>216</v>
       </c>
-      <c r="T19" s="253">
+      <c r="T19" s="246">
         <f ca="1">'Yearly Cash Flow'!F40-'Yearly Cash Flow'!F41+'Yearly Cash Flow'!F42</f>
         <v>-5210.0562026744792</v>
       </c>
@@ -17182,33 +17166,33 @@
       <c r="Q20" s="227" t="s">
         <v>217</v>
       </c>
-      <c r="T20" s="253">
+      <c r="T20" s="246">
         <f ca="1">-'Yearly Cash Flow'!F44</f>
         <v>-6184.3892400464947</v>
       </c>
     </row>
     <row r="21" spans="2:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="231" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C21" s="231"/>
       <c r="D21" s="231"/>
       <c r="E21" s="231"/>
       <c r="F21" s="231"/>
       <c r="G21" s="231"/>
-      <c r="I21" s="256" t="s">
-        <v>229</v>
-      </c>
-      <c r="J21" s="256"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
+      <c r="I21" s="249" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="249"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="249"/>
+      <c r="M21" s="249"/>
+      <c r="N21" s="249"/>
       <c r="O21" s="232"/>
       <c r="Q21" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="253">
+      <c r="T21" s="246">
         <f ca="1">'Yearly Cash Flow'!F46</f>
         <v>15743.874778474739</v>
       </c>
@@ -17232,243 +17216,192 @@
     </row>
     <row r="24" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q24" s="238" t="s">
-        <v>229</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q25" s="244" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R25" s="245" t="s">
+        <v>218</v>
+      </c>
+      <c r="S25" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="S25" s="245" t="s">
-        <v>220</v>
-      </c>
       <c r="T25" s="245" t="s">
-        <v>219</v>
-      </c>
-      <c r="V25" s="244" t="s">
         <v>218</v>
       </c>
-      <c r="W25" s="245" t="s">
-        <v>219</v>
-      </c>
-      <c r="X25" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y25" s="245" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z25" s="246" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA25" s="246" t="s">
-        <v>222</v>
-      </c>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R26" s="254">
+      <c r="R26" s="247">
         <v>0</v>
       </c>
-      <c r="S26" s="254">
+      <c r="S26" s="247">
         <f ca="1">'Yearly Cash Flow'!F256</f>
         <v>0.84708131795991459</v>
       </c>
-      <c r="T26" s="254">
+      <c r="T26" s="247">
         <f>R26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="247">
-        <v>0</v>
-      </c>
-      <c r="X26" s="248">
-        <v>0.09</v>
-      </c>
-      <c r="Y26" s="247">
-        <f>W26</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="249">
-        <f>X26</f>
-        <v>0.09</v>
-      </c>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
     </row>
     <row r="27" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q27" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="R27" s="254">
+        <v>220</v>
+      </c>
+      <c r="R27" s="247">
         <f>'Yearly Cash Flow'!F258</f>
         <v>1</v>
       </c>
-      <c r="S27" s="254">
+      <c r="S27" s="247">
         <f ca="1">MAX(R27-S26,0)</f>
         <v>0.15291868204008541</v>
       </c>
-      <c r="T27" s="254">
+      <c r="T27" s="247">
         <f t="shared" ref="T27:T29" si="3">R27</f>
         <v>1</v>
       </c>
-      <c r="V27" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="W27" s="248">
-        <v>0.8</v>
-      </c>
-      <c r="X27" s="247">
-        <f>MAX(Z27-AA26,0)</f>
-        <v>0.71000000000000008</v>
-      </c>
-      <c r="Y27" s="247">
-        <f t="shared" ref="Y27:Y29" si="4">W27</f>
-        <v>0.8</v>
-      </c>
-      <c r="Z27" s="249">
-        <f>W27</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA27" s="249">
-        <f>AA26+X27</f>
-        <v>0.8</v>
-      </c>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
     </row>
     <row r="28" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q28" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="R28" s="254">
+        <v>221</v>
+      </c>
+      <c r="R28" s="247">
         <f>'Yearly Cash Flow'!F257-'Yearly Cash Flow'!F258</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="S28" s="254">
+      <c r="S28" s="247">
         <f ca="1">MAX(SUM(R27:R28)-SUM(S26:S27),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="T28" s="254">
+      <c r="T28" s="247">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="V28" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="W28" s="248">
-        <v>0.1</v>
-      </c>
-      <c r="X28" s="247">
-        <f>MAX(Z28-AA27,0)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="Y28" s="247">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="Z28" s="249">
-        <f>Z27+W28</f>
-        <v>0.9</v>
-      </c>
-      <c r="AA28" s="249">
-        <f>AA27+X28</f>
-        <v>0.9</v>
-      </c>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
     </row>
     <row r="29" spans="2:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q29" s="227" t="s">
-        <v>225</v>
-      </c>
-      <c r="R29" s="254">
+        <v>222</v>
+      </c>
+      <c r="R29" s="247">
         <v>0.5</v>
       </c>
-      <c r="S29" s="254">
+      <c r="S29" s="247">
         <f ca="1">MAX(SUM(R27:R29)-SUM(S26:S28),0)</f>
         <v>0.5</v>
       </c>
-      <c r="T29" s="254">
+      <c r="T29" s="247">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="V29" s="227" t="s">
-        <v>225</v>
-      </c>
-      <c r="W29" s="250">
-        <v>0.1</v>
-      </c>
-      <c r="X29" s="251">
-        <f>MAX(Z29-AA28,0)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="Y29" s="251">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="Z29" s="252">
-        <f>Z28+W29</f>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="252">
-        <f>AA28+X29</f>
-        <v>1</v>
-      </c>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
     </row>
     <row r="30" spans="2:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q30" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="R30" s="255">
+      <c r="R30" s="248">
         <f>SUM(R26:R29)</f>
         <v>1.8</v>
       </c>
-      <c r="S30" s="255">
-        <f t="shared" ref="S30:T30" ca="1" si="5">SUM(S26:S29)</f>
+      <c r="S30" s="248">
+        <f t="shared" ref="S30:T30" ca="1" si="4">SUM(S26:S29)</f>
         <v>1.8</v>
       </c>
-      <c r="T30" s="255">
-        <f t="shared" si="5"/>
+      <c r="T30" s="248">
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
-      <c r="V30" s="227" t="s">
-        <v>129</v>
-      </c>
-      <c r="W30" s="247">
-        <f>SUM(W26:W29)</f>
-        <v>1</v>
-      </c>
-      <c r="X30" s="247">
-        <f>SUM(X26:X29)</f>
-        <v>1</v>
-      </c>
-      <c r="Y30" s="247">
-        <f>SUM(Y26:Y29)</f>
-        <v>1</v>
-      </c>
-      <c r="Z30" s="247"/>
-      <c r="AA30" s="247"/>
-    </row>
-    <row r="31" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+    </row>
     <row r="32" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q32" s="244" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R32" s="245" t="s">
+        <v>218</v>
+      </c>
+      <c r="S32" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="S32" s="245" t="s">
-        <v>220</v>
-      </c>
       <c r="T32" s="245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
     </row>
     <row r="33" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R33" s="254">
+      <c r="R33" s="247">
         <v>0</v>
       </c>
-      <c r="S33" s="254">
+      <c r="S33" s="247">
         <f ca="1">'Yearly Cash Flow'!F260</f>
         <v>0.90471193422288854</v>
       </c>
-      <c r="T33" s="254">
+      <c r="T33" s="247">
         <f>R33</f>
         <v>0</v>
       </c>
@@ -17477,53 +17410,53 @@
     </row>
     <row r="34" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q34" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="R34" s="254">
+        <v>220</v>
+      </c>
+      <c r="R34" s="247">
         <f>'Yearly Cash Flow'!F261</f>
         <v>1</v>
       </c>
-      <c r="S34" s="254">
+      <c r="S34" s="247">
         <f ca="1">MAX(R34-S33,0)</f>
         <v>9.5288065777111464E-2</v>
       </c>
-      <c r="T34" s="254">
-        <f t="shared" ref="T34:T36" si="6">R34</f>
+      <c r="T34" s="247">
+        <f t="shared" ref="T34:T36" si="5">R34</f>
         <v>1</v>
       </c>
       <c r="U34"/>
     </row>
     <row r="35" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q35" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="R35" s="254">
+        <v>221</v>
+      </c>
+      <c r="R35" s="247">
         <f>'Yearly Cash Flow'!G262-'Yearly Cash Flow'!G261</f>
         <v>0.75</v>
       </c>
-      <c r="S35" s="254">
+      <c r="S35" s="247">
         <f ca="1">MAX(SUM(R34:R35)-SUM(S33:S34),0)</f>
         <v>0.75</v>
       </c>
-      <c r="T35" s="254">
-        <f t="shared" si="6"/>
+      <c r="T35" s="247">
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="U35"/>
     </row>
     <row r="36" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q36" s="227" t="s">
-        <v>225</v>
-      </c>
-      <c r="R36" s="254">
+        <v>222</v>
+      </c>
+      <c r="R36" s="247">
         <v>0.5</v>
       </c>
-      <c r="S36" s="254">
+      <c r="S36" s="247">
         <f ca="1">MAX(SUM(R34:R36)-SUM(S33:S35),0)</f>
         <v>0.5</v>
       </c>
-      <c r="T36" s="254">
-        <f t="shared" si="6"/>
+      <c r="T36" s="247">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U36"/>
@@ -17532,16 +17465,16 @@
       <c r="Q37" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="R37" s="255">
+      <c r="R37" s="248">
         <f>SUM(R33:R36)</f>
         <v>2.25</v>
       </c>
-      <c r="S37" s="255">
-        <f t="shared" ref="S37:T37" ca="1" si="7">SUM(S33:S36)</f>
+      <c r="S37" s="248">
+        <f t="shared" ref="S37:T37" ca="1" si="6">SUM(S33:S36)</f>
         <v>2.25</v>
       </c>
-      <c r="T37" s="255">
-        <f t="shared" si="7"/>
+      <c r="T37" s="248">
+        <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="U37"/>
@@ -17560,16 +17493,16 @@
       <c r="I39"/>
       <c r="O39" s="232"/>
       <c r="Q39" s="244" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="R39" s="245" t="s">
+        <v>218</v>
+      </c>
+      <c r="S39" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="S39" s="245" t="s">
-        <v>220</v>
-      </c>
       <c r="T39" s="245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U39"/>
       <c r="Z39" s="241"/>
@@ -17578,14 +17511,14 @@
       <c r="AC39" s="241"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="R40" s="254">
+      <c r="R40" s="247">
         <v>0</v>
       </c>
-      <c r="S40" s="254">
+      <c r="S40" s="247">
         <f ca="1">'Yearly Cash Flow'!F264</f>
         <v>1.5359733658830375</v>
       </c>
-      <c r="T40" s="254">
+      <c r="T40" s="247">
         <f>R40</f>
         <v>0</v>
       </c>
@@ -17593,53 +17526,53 @@
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q41" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="R41" s="254">
+        <v>220</v>
+      </c>
+      <c r="R41" s="247">
         <f>'Yearly Cash Flow'!F265</f>
         <v>2.5</v>
       </c>
-      <c r="S41" s="254">
+      <c r="S41" s="247">
         <f ca="1">MAX(R41-S40,0)</f>
         <v>0.96402663411696254</v>
       </c>
-      <c r="T41" s="254">
-        <f t="shared" ref="T41:T43" si="8">R41</f>
+      <c r="T41" s="247">
+        <f t="shared" ref="T41:T43" si="7">R41</f>
         <v>2.5</v>
       </c>
       <c r="U41"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q42" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="R42" s="254">
+        <v>221</v>
+      </c>
+      <c r="R42" s="247">
         <f>'Yearly Cash Flow'!F266-'Yearly Cash Flow'!F265</f>
         <v>0.5</v>
       </c>
-      <c r="S42" s="254">
+      <c r="S42" s="247">
         <f ca="1">MAX(SUM(R41:R42)-SUM(S40:S41),0)</f>
         <v>0.5</v>
       </c>
-      <c r="T42" s="254">
-        <f t="shared" si="8"/>
+      <c r="T42" s="247">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="U42"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q43" s="227" t="s">
-        <v>225</v>
-      </c>
-      <c r="R43" s="254">
+        <v>222</v>
+      </c>
+      <c r="R43" s="247">
         <v>0.5</v>
       </c>
-      <c r="S43" s="254">
+      <c r="S43" s="247">
         <f ca="1">MAX(SUM(R41:R43)-SUM(S40:S42),0)</f>
         <v>0.5</v>
       </c>
-      <c r="T43" s="254">
-        <f t="shared" si="8"/>
+      <c r="T43" s="247">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="U43"/>
@@ -17648,16 +17581,16 @@
       <c r="Q44" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="R44" s="255">
+      <c r="R44" s="248">
         <f>SUM(R40:R43)</f>
         <v>3.5</v>
       </c>
-      <c r="S44" s="255">
-        <f t="shared" ref="S44:T44" ca="1" si="9">SUM(S40:S43)</f>
+      <c r="S44" s="248">
+        <f t="shared" ref="S44:T44" ca="1" si="8">SUM(S40:S43)</f>
         <v>3.5</v>
       </c>
-      <c r="T44" s="255">
-        <f t="shared" si="9"/>
+      <c r="T44" s="248">
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="U44"/>
@@ -17667,78 +17600,78 @@
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q46" s="244" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R46" s="245" t="s">
+        <v>218</v>
+      </c>
+      <c r="S46" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="S46" s="245" t="s">
-        <v>220</v>
-      </c>
       <c r="T46" s="245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="R47" s="254">
+      <c r="R47" s="247">
         <v>0</v>
       </c>
-      <c r="S47" s="254">
+      <c r="S47" s="247">
         <f ca="1">'Yearly Cash Flow'!F268</f>
         <v>4.3450518770961981</v>
       </c>
-      <c r="T47" s="254">
+      <c r="T47" s="247">
         <f>R47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q48" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="R48" s="254">
+        <v>220</v>
+      </c>
+      <c r="R48" s="247">
         <f>'Yearly Cash Flow'!F270</f>
         <v>1.5</v>
       </c>
-      <c r="S48" s="254">
+      <c r="S48" s="247">
         <f ca="1">MAX(R48-S47,0)</f>
         <v>0</v>
       </c>
-      <c r="T48" s="254">
-        <f t="shared" ref="T48:T50" si="10">R48</f>
+      <c r="T48" s="247">
+        <f t="shared" ref="T48:T49" si="9">R48</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="17:20" x14ac:dyDescent="0.35">
       <c r="Q49" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="R49" s="254">
+        <v>221</v>
+      </c>
+      <c r="R49" s="247">
         <f>'Yearly Cash Flow'!F269-'Yearly Cash Flow'!F270</f>
         <v>0.5</v>
       </c>
-      <c r="S49" s="254">
+      <c r="S49" s="247">
         <f ca="1">MAX(SUM(R48:R49)-SUM(S47:S48),0)</f>
         <v>0</v>
       </c>
-      <c r="T49" s="254">
-        <f t="shared" si="10"/>
+      <c r="T49" s="247">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="17:20" x14ac:dyDescent="0.35">
       <c r="Q50" s="227" t="s">
-        <v>225</v>
-      </c>
-      <c r="R50" s="254">
+        <v>222</v>
+      </c>
+      <c r="R50" s="247">
         <v>3</v>
       </c>
-      <c r="S50" s="254">
+      <c r="S50" s="247">
         <f ca="1">MAX(SUM(R48:R50)-SUM(S47:S49),0)</f>
         <v>0.65494812290380189</v>
       </c>
-      <c r="T50" s="254">
-        <f t="shared" ref="T50" si="11">R50</f>
+      <c r="T50" s="247">
+        <f t="shared" ref="T50" si="10">R50</f>
         <v>3</v>
       </c>
     </row>
@@ -17746,93 +17679,93 @@
       <c r="Q51" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="R51" s="255">
+      <c r="R51" s="248">
         <f>SUM(R47:R50)</f>
         <v>5</v>
       </c>
-      <c r="S51" s="255">
+      <c r="S51" s="248">
         <f ca="1">SUM(S47:S50)</f>
         <v>5</v>
       </c>
-      <c r="T51" s="255">
+      <c r="T51" s="248">
         <f>SUM(T47:T50)</f>
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="17:20" x14ac:dyDescent="0.35">
       <c r="Q53" s="244" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R53" s="245" t="s">
+        <v>218</v>
+      </c>
+      <c r="S53" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="S53" s="245" t="s">
-        <v>220</v>
-      </c>
       <c r="T53" s="245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="17:20" x14ac:dyDescent="0.35">
-      <c r="R54" s="254">
+      <c r="R54" s="247">
         <v>0</v>
       </c>
-      <c r="S54" s="254">
+      <c r="S54" s="247">
         <f ca="1">'Yearly Cash Flow'!F272</f>
         <v>15.830454396756572</v>
       </c>
-      <c r="T54" s="254">
+      <c r="T54" s="247">
         <f>R54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="17:20" x14ac:dyDescent="0.35">
       <c r="Q55" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="R55" s="254">
+        <v>220</v>
+      </c>
+      <c r="R55" s="247">
         <f>'Yearly Cash Flow'!F274</f>
         <v>1</v>
       </c>
-      <c r="S55" s="254">
+      <c r="S55" s="247">
         <f ca="1">MAX(R55-S54,0)</f>
         <v>0</v>
       </c>
-      <c r="T55" s="254">
-        <f t="shared" ref="T55:T57" si="12">R55</f>
+      <c r="T55" s="247">
+        <f t="shared" ref="T55:T57" si="11">R55</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="17:20" x14ac:dyDescent="0.35">
       <c r="Q56" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="R56" s="254">
+        <v>221</v>
+      </c>
+      <c r="R56" s="247">
         <f>'Yearly Cash Flow'!F273-'Yearly Cash Flow'!F274</f>
         <v>1</v>
       </c>
-      <c r="S56" s="254">
+      <c r="S56" s="247">
         <f ca="1">MAX(SUM(R55:R56)-SUM(S54:S55),0)</f>
         <v>0</v>
       </c>
-      <c r="T56" s="254">
-        <f t="shared" si="12"/>
+      <c r="T56" s="247">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="17:20" x14ac:dyDescent="0.35">
       <c r="Q57" s="227" t="s">
-        <v>225</v>
-      </c>
-      <c r="R57" s="254">
+        <v>222</v>
+      </c>
+      <c r="R57" s="247">
         <v>14</v>
       </c>
-      <c r="S57" s="254">
+      <c r="S57" s="247">
         <f ca="1">MAX(SUM(R55:R57)-SUM(S54:S56),0)</f>
         <v>0.16954560324342793</v>
       </c>
-      <c r="T57" s="254">
-        <f t="shared" si="12"/>
+      <c r="T57" s="247">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -17840,15 +17773,15 @@
       <c r="Q58" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="R58" s="255">
+      <c r="R58" s="248">
         <f>SUM(R54:R57)</f>
         <v>16</v>
       </c>
-      <c r="S58" s="255">
+      <c r="S58" s="248">
         <f ca="1">SUM(S54:S57)</f>
         <v>16</v>
       </c>
-      <c r="T58" s="255">
+      <c r="T58" s="248">
         <f>SUM(T54:T57)</f>
         <v>16</v>
       </c>

--- a/(WALMART)-Debt Modeling.xlsx
+++ b/(WALMART)-Debt Modeling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d2e6b5b813af4a/Área de Trabalho/Projects/3Statementmodel - Debt Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1804" documentId="13_ncr:1_{6F4B13BA-9C51-4262-B64D-FC8E7DD0FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9E18AB-3E03-4027-B7E1-E6BBB12A7794}"/>
+  <xr:revisionPtr revIDLastSave="1870" documentId="13_ncr:1_{6F4B13BA-9C51-4262-B64D-FC8E7DD0FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DB29195-F384-4C26-8058-B88EFA0E82F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly Cash Flow" sheetId="2" r:id="rId1"/>
@@ -1734,6 +1734,16 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6"/>
@@ -1772,16 +1782,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1971,7 +1971,7 @@
                   <c:v>30636.163975578802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33019.214582325862</c:v>
+                  <c:v>33019.214582325847</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35206.20216250699</c:v>
@@ -2025,16 +2025,16 @@
                   <c:v>-20769.38404095385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22229.204838176443</c:v>
+                  <c:v>-22229.204838176447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23791.632277743436</c:v>
+                  <c:v>-23791.63227774344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25463.878288045784</c:v>
+                  <c:v>-25463.878288045773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-27253.661703362079</c:v>
+                  <c:v>-27253.661703362061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,16 +2079,16 @@
                   <c:v>-9566.5865804298737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10151.49544899186</c:v>
+                  <c:v>-10151.495448991842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10744.750947128661</c:v>
+                  <c:v>-10744.750947128628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10598.036834183484</c:v>
+                  <c:v>-10598.036834183493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10749.681805178427</c:v>
+                  <c:v>-10749.681805178428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,13 +2179,13 @@
                   <c:v>10805.707649352637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11475.526586987529</c:v>
+                  <c:v>11475.526586987558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12187.343187256531</c:v>
+                  <c:v>12187.343187256562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12948.941651758823</c:v>
+                  <c:v>12948.941651758871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8531,8 +8531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10698480" y="35707320"/>
-          <a:ext cx="4998720" cy="719852"/>
+          <a:off x="10727615" y="36514144"/>
+          <a:ext cx="4987963" cy="735988"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9210,10 +9210,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9482,7 +9478,7 @@
   </sheetPr>
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -9495,7 +9491,9 @@
     <col min="2" max="2" width="12.88671875" style="11" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="11" customWidth="1"/>
+    <col min="7" max="10" width="12.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
@@ -10628,19 +10626,19 @@
       </c>
       <c r="G38" s="92">
         <f ca="1">G65*G10</f>
-        <v>13893.253023860276</v>
+        <v>13893.253023860279</v>
       </c>
       <c r="H38" s="92">
         <f ca="1">H65*H10</f>
-        <v>14869.77017358965</v>
+        <v>14869.770173589646</v>
       </c>
       <c r="I38" s="92">
         <f ca="1">I65*I10</f>
-        <v>15914.923930028614</v>
+        <v>15914.923930028606</v>
       </c>
       <c r="J38" s="92">
         <f ca="1">J65*J10</f>
-        <v>17033.538564601287</v>
+        <v>17033.538564601298</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10674,11 +10672,11 @@
       </c>
       <c r="I39" s="94">
         <f t="shared" ca="1" si="30"/>
-        <v>31416.88844043143</v>
+        <v>31416.888440431438</v>
       </c>
       <c r="J39" s="94">
         <f t="shared" ca="1" si="30"/>
-        <v>32664.864424381769</v>
+        <v>32664.864424381758</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -10821,11 +10819,11 @@
       </c>
       <c r="I43" s="95">
         <f t="shared" ca="1" si="32"/>
-        <v>26021.820145010854</v>
+        <v>26021.820145010861</v>
       </c>
       <c r="J43" s="95">
         <f t="shared" ca="1" si="32"/>
-        <v>27085.652839211562</v>
+        <v>27085.652839211547</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -10856,11 +10854,11 @@
       </c>
       <c r="I44" s="88">
         <f ca="1">I43*I14</f>
-        <v>7338.887582496498</v>
+        <v>7338.8875824964998</v>
       </c>
       <c r="J44" s="88">
         <f ca="1">J43*J14</f>
-        <v>7638.9184222231443</v>
+        <v>7638.9184222231397</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -10891,11 +10889,11 @@
       </c>
       <c r="I45" s="78">
         <f ca="1">I43*I15</f>
-        <v>227.42275390908421</v>
+        <v>227.42275390908426</v>
       </c>
       <c r="J45" s="78">
         <f ca="1">J43*J15</f>
-        <v>236.7203264718564</v>
+        <v>236.72032647185625</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10929,11 +10927,11 @@
       </c>
       <c r="I46" s="94">
         <f t="shared" ca="1" si="33"/>
-        <v>18682.932562514354</v>
+        <v>18682.932562514361</v>
       </c>
       <c r="J46" s="94">
         <f t="shared" ca="1" si="33"/>
-        <v>19446.734416988416</v>
+        <v>19446.734416988409</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -10980,15 +10978,15 @@
       </c>
       <c r="H49" s="99">
         <f t="shared" ca="1" si="34"/>
-        <v>101082.92885722814</v>
+        <v>101082.92885722811</v>
       </c>
       <c r="I49" s="99">
         <f t="shared" ca="1" si="34"/>
-        <v>106590.35492170893</v>
+        <v>106590.3549217089</v>
       </c>
       <c r="J49" s="99">
         <f t="shared" ca="1" si="34"/>
-        <v>110583.2506500398</v>
+        <v>110583.25065003979</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11013,11 +11011,11 @@
       </c>
       <c r="I50" s="99">
         <f t="shared" ca="1" si="35"/>
-        <v>18682.932562514354</v>
+        <v>18682.932562514361</v>
       </c>
       <c r="J50" s="99">
         <f t="shared" ca="1" si="35"/>
-        <v>19446.734416988416</v>
+        <v>19446.734416988409</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11051,11 +11049,11 @@
       </c>
       <c r="I51" s="99">
         <f ca="1">I46*I16</f>
-        <v>8470.5109214934528</v>
+        <v>8470.5109214934546</v>
       </c>
       <c r="J51" s="99">
         <f ca="1">J46*J16</f>
-        <v>8816.8051624286545</v>
+        <v>8816.8051624286527</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11085,11 +11083,11 @@
       </c>
       <c r="H52" s="95">
         <f t="shared" ca="1" si="37"/>
-        <v>110852.72378082512</v>
+        <v>110852.72378082509</v>
       </c>
       <c r="I52" s="95">
         <f t="shared" ca="1" si="37"/>
-        <v>116802.77656272984</v>
+        <v>116802.77656272981</v>
       </c>
       <c r="J52" s="95">
         <f t="shared" ca="1" si="37"/>
@@ -11186,15 +11184,15 @@
       </c>
       <c r="H58" s="101">
         <f ca="1">H116</f>
-        <v>11475.526586987547</v>
+        <v>11475.52658698754</v>
       </c>
       <c r="I58" s="101">
         <f ca="1">I116</f>
-        <v>12187.343187256545</v>
+        <v>12187.343187256547</v>
       </c>
       <c r="J58" s="101">
         <f ca="1">J116</f>
-        <v>12948.941651758827</v>
+        <v>12948.941651758867</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -11368,7 +11366,7 @@
       </c>
       <c r="H63" s="103">
         <f t="shared" ca="1" si="41"/>
-        <v>96362.685930356354</v>
+        <v>96362.68593035634</v>
       </c>
       <c r="I63" s="103">
         <f t="shared" ca="1" si="41"/>
@@ -11376,7 +11374,7 @@
       </c>
       <c r="J63" s="103">
         <f t="shared" ca="1" si="41"/>
-        <v>106196.52982782293</v>
+        <v>106196.52982782297</v>
       </c>
       <c r="K63" s="14"/>
     </row>
@@ -11418,19 +11416,19 @@
       </c>
       <c r="G65" s="105">
         <f t="shared" ca="1" si="42"/>
-        <v>126934.47082967387</v>
+        <v>126934.4708296739</v>
       </c>
       <c r="H65" s="105">
         <f t="shared" ca="1" si="42"/>
-        <v>135856.33293382765</v>
+        <v>135856.33293382768</v>
       </c>
       <c r="I65" s="105">
         <f t="shared" ca="1" si="42"/>
-        <v>145405.28729184484</v>
+        <v>145405.28729184478</v>
       </c>
       <c r="J65" s="105">
         <f t="shared" ca="1" si="42"/>
-        <v>155625.41043060564</v>
+        <v>155625.41043060555</v>
       </c>
       <c r="K65" s="14"/>
     </row>
@@ -11532,19 +11530,19 @@
       </c>
       <c r="G68" s="107">
         <f t="shared" ca="1" si="45"/>
-        <v>191646.47082967387</v>
+        <v>191646.4708296739</v>
       </c>
       <c r="H68" s="107">
         <f t="shared" ca="1" si="45"/>
-        <v>200568.33293382765</v>
+        <v>200568.33293382768</v>
       </c>
       <c r="I68" s="107">
         <f t="shared" ca="1" si="45"/>
-        <v>210117.28729184484</v>
+        <v>210117.28729184478</v>
       </c>
       <c r="J68" s="107">
         <f t="shared" ca="1" si="45"/>
-        <v>220337.41043060564</v>
+        <v>220337.41043060555</v>
       </c>
       <c r="K68" s="14"/>
     </row>
@@ -11579,11 +11577,11 @@
       </c>
       <c r="I69" s="109">
         <f t="shared" ref="I69" ca="1" si="47">I68+I63</f>
-        <v>311270.04778963863</v>
+        <v>311270.04778963857</v>
       </c>
       <c r="J69" s="109">
         <f t="shared" ref="J69" ca="1" si="48">J68+J63</f>
-        <v>326533.94025842857</v>
+        <v>326533.94025842851</v>
       </c>
       <c r="K69" s="14"/>
     </row>
@@ -12098,11 +12096,11 @@
       </c>
       <c r="H86" s="115">
         <f ca="1">H52</f>
-        <v>110852.72378082512</v>
+        <v>110852.72378082509</v>
       </c>
       <c r="I86" s="115">
         <f ca="1">I52</f>
-        <v>116802.77656272984</v>
+        <v>116802.77656272981</v>
       </c>
       <c r="J86" s="115">
         <f ca="1">J52</f>
@@ -12130,7 +12128,7 @@
       </c>
       <c r="G87" s="116">
         <f ca="1">G86+G109+G110</f>
-        <v>101082.92885722811</v>
+        <v>101082.92885722814</v>
       </c>
       <c r="H87" s="116">
         <f ca="1">H86+H109+H110</f>
@@ -12138,7 +12136,7 @@
       </c>
       <c r="I87" s="116">
         <f ca="1">I86+I109+I110</f>
-        <v>110583.2506500398</v>
+        <v>110583.25065003977</v>
       </c>
       <c r="J87" s="116">
         <f ca="1">J86+J109+J110</f>
@@ -12180,7 +12178,7 @@
       </c>
       <c r="I88" s="109">
         <f t="shared" ca="1" si="54"/>
-        <v>311270.04778963863</v>
+        <v>311270.04778963857</v>
       </c>
       <c r="J88" s="109">
         <f t="shared" ca="1" si="54"/>
@@ -12307,11 +12305,11 @@
       </c>
       <c r="I94" s="78">
         <f t="shared" ca="1" si="56"/>
-        <v>18682.932562514354</v>
+        <v>18682.932562514361</v>
       </c>
       <c r="J94" s="78">
         <f t="shared" ca="1" si="56"/>
-        <v>19446.734416988416</v>
+        <v>19446.734416988409</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12372,19 +12370,19 @@
       </c>
       <c r="G96" s="78">
         <f t="shared" ca="1" si="57"/>
-        <v>13893.253023860276</v>
+        <v>13893.253023860279</v>
       </c>
       <c r="H96" s="78">
         <f t="shared" ca="1" si="57"/>
-        <v>14869.77017358965</v>
+        <v>14869.770173589646</v>
       </c>
       <c r="I96" s="78">
         <f t="shared" ca="1" si="57"/>
-        <v>15914.923930028614</v>
+        <v>15914.923930028606</v>
       </c>
       <c r="J96" s="78">
         <f t="shared" ca="1" si="57"/>
-        <v>17033.538564601287</v>
+        <v>17033.538564601298</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12600,7 +12598,7 @@
       </c>
       <c r="G103" s="120">
         <f t="shared" ca="1" si="60"/>
-        <v>33019.214582325847</v>
+        <v>33019.214582325862</v>
       </c>
       <c r="H103" s="120">
         <f t="shared" ca="1" si="60"/>
@@ -12647,19 +12645,19 @@
       </c>
       <c r="G105" s="78">
         <f t="shared" ref="G105:J105" ca="1" si="61">-G124</f>
-        <v>-22229.204838176447</v>
+        <v>-22229.204838176443</v>
       </c>
       <c r="H105" s="78">
         <f t="shared" ca="1" si="61"/>
-        <v>-23791.632277743436</v>
+        <v>-23791.63227774344</v>
       </c>
       <c r="I105" s="78">
         <f t="shared" ca="1" si="61"/>
-        <v>-25463.878288045773</v>
+        <v>-25463.878288045784</v>
       </c>
       <c r="J105" s="78">
         <f t="shared" ca="1" si="61"/>
-        <v>-27253.661703362079</v>
+        <v>-27253.661703362061</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12685,19 +12683,19 @@
       </c>
       <c r="G106" s="120">
         <f t="shared" ca="1" si="62"/>
-        <v>-22229.204838176447</v>
+        <v>-22229.204838176443</v>
       </c>
       <c r="H106" s="120">
         <f t="shared" ca="1" si="62"/>
-        <v>-23791.632277743436</v>
+        <v>-23791.63227774344</v>
       </c>
       <c r="I106" s="120">
         <f t="shared" ca="1" si="62"/>
-        <v>-25463.878288045773</v>
+        <v>-25463.878288045784</v>
       </c>
       <c r="J106" s="120">
         <f t="shared" ca="1" si="62"/>
-        <v>-27253.661703362079</v>
+        <v>-27253.661703362061</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12801,19 +12799,19 @@
       </c>
       <c r="G110" s="78">
         <f t="shared" ref="G110:J110" ca="1" si="65">G147</f>
-        <v>-4326.7043483444977</v>
+        <v>-4326.7043483444795</v>
       </c>
       <c r="H110" s="78">
         <f t="shared" ca="1" si="65"/>
-        <v>-4262.3688591161917</v>
+        <v>-4262.3688591161881</v>
       </c>
       <c r="I110" s="78">
         <f t="shared" ca="1" si="65"/>
-        <v>-6219.5259126900328</v>
+        <v>-6219.5259126900364</v>
       </c>
       <c r="J110" s="78">
         <f t="shared" ca="1" si="65"/>
-        <v>-5193.8766427497649</v>
+        <v>-5193.8766427497831</v>
       </c>
     </row>
     <row r="111" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12844,11 +12842,11 @@
       </c>
       <c r="I111" s="78">
         <f ca="1">-I51</f>
-        <v>-8470.5109214934528</v>
+        <v>-8470.5109214934546</v>
       </c>
       <c r="J111" s="78">
         <f ca="1">-J51</f>
-        <v>-8816.8051624286545</v>
+        <v>-8816.8051624286527</v>
       </c>
     </row>
     <row r="112" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12874,19 +12872,19 @@
       </c>
       <c r="G112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10151.49544899186</v>
+        <v>-10151.495448991842</v>
       </c>
       <c r="H112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10744.750947128647</v>
+        <v>-10744.750947128643</v>
       </c>
       <c r="I112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10598.036834183486</v>
+        <v>-10598.036834183491</v>
       </c>
       <c r="J112" s="120">
         <f t="shared" ca="1" si="66"/>
-        <v>-10749.681805178419</v>
+        <v>-10749.681805178436</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12924,7 +12922,7 @@
       </c>
       <c r="G114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>638.51429515753989</v>
+        <v>638.51429515757627</v>
       </c>
       <c r="H114" s="121">
         <f t="shared" ca="1" si="67"/>
@@ -12932,11 +12930,11 @@
       </c>
       <c r="I114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>711.81660026901045</v>
+        <v>711.81660026899408</v>
       </c>
       <c r="J114" s="121">
         <f t="shared" ca="1" si="67"/>
-        <v>761.59846450229998</v>
+        <v>761.59846450230179</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -12969,11 +12967,11 @@
       </c>
       <c r="I115" s="78">
         <f t="shared" ca="1" si="68"/>
-        <v>11475.526586987547</v>
+        <v>11475.52658698754</v>
       </c>
       <c r="J115" s="78">
         <f t="shared" ca="1" si="68"/>
-        <v>12187.343187256545</v>
+        <v>12187.343187256547</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12999,7 +12997,7 @@
       </c>
       <c r="G116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>10805.707649352618</v>
+        <v>10805.707649352655</v>
       </c>
       <c r="H116" s="122">
         <f t="shared" ca="1" si="69"/>
@@ -13007,11 +13005,11 @@
       </c>
       <c r="I116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>12187.343187256558</v>
+        <v>12187.343187256534</v>
       </c>
       <c r="J116" s="122">
         <f t="shared" ca="1" si="69"/>
-        <v>12948.941651758845</v>
+        <v>12948.941651758849</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -13049,7 +13047,7 @@
       </c>
       <c r="G118" s="119">
         <f t="shared" ca="1" si="70"/>
-        <v>-1.8189894035458565E-11</v>
+        <v>1.8189894035458565E-11</v>
       </c>
       <c r="H118" s="119">
         <f t="shared" ca="1" si="70"/>
@@ -13061,7 +13059,7 @@
       </c>
       <c r="J118" s="119">
         <f t="shared" ca="1" si="70"/>
-        <v>1.8189894035458565E-11</v>
+        <v>-1.8189894035458565E-11</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13159,19 +13157,19 @@
       </c>
       <c r="G124" s="78">
         <f ca="1">G129*G21</f>
-        <v>22229.204838176447</v>
+        <v>22229.204838176443</v>
       </c>
       <c r="H124" s="78">
         <f ca="1">H129*H21</f>
-        <v>23791.63227774344</v>
+        <v>23791.632277743436</v>
       </c>
       <c r="I124" s="78">
         <f ca="1">I129*I21</f>
-        <v>25463.878288045773</v>
+        <v>25463.878288045784</v>
       </c>
       <c r="J124" s="78">
         <f ca="1">J129*J21</f>
-        <v>27253.661703362061</v>
+        <v>27253.661703362079</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13249,15 +13247,15 @@
       </c>
       <c r="H128" s="92">
         <f t="shared" ca="1" si="72"/>
-        <v>135923.11804945645</v>
+        <v>135923.11804945642</v>
       </c>
       <c r="I128" s="92">
         <f t="shared" ca="1" si="72"/>
-        <v>150792.88822304609</v>
+        <v>150792.88822304606</v>
       </c>
       <c r="J128" s="92">
         <f t="shared" ca="1" si="72"/>
-        <v>166707.81215307466</v>
+        <v>166707.81215307472</v>
       </c>
     </row>
     <row r="129" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13274,19 +13272,19 @@
       </c>
       <c r="G129" s="92">
         <f ca="1">G38</f>
-        <v>13893.253023860276</v>
+        <v>13893.253023860279</v>
       </c>
       <c r="H129" s="92">
         <f ca="1">H38</f>
-        <v>14869.77017358965</v>
+        <v>14869.770173589646</v>
       </c>
       <c r="I129" s="92">
         <f ca="1">I38</f>
-        <v>15914.923930028614</v>
+        <v>15914.923930028606</v>
       </c>
       <c r="J129" s="92">
         <f ca="1">J38</f>
-        <v>17033.538564601287</v>
+        <v>17033.538564601298</v>
       </c>
     </row>
     <row r="130" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13305,19 +13303,19 @@
       </c>
       <c r="G130" s="126">
         <f ca="1">SUM(G128:G129)</f>
-        <v>135923.11804945642</v>
+        <v>135923.11804945645</v>
       </c>
       <c r="H130" s="126">
         <f ca="1">SUM(H128:H129)</f>
-        <v>150792.88822304609</v>
+        <v>150792.88822304606</v>
       </c>
       <c r="I130" s="126">
         <f ca="1">SUM(I128:I129)</f>
-        <v>166707.81215307472</v>
+        <v>166707.81215307466</v>
       </c>
       <c r="J130" s="126">
         <f ca="1">SUM(J128:J129)</f>
-        <v>183741.35071767593</v>
+        <v>183741.35071767602</v>
       </c>
     </row>
     <row r="131" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13352,19 +13350,19 @@
       </c>
       <c r="G132" s="92">
         <f ca="1">G125-G130</f>
-        <v>126934.4708296739</v>
+        <v>126934.47082967387</v>
       </c>
       <c r="H132" s="92">
         <f ca="1">H125-H130</f>
-        <v>135856.33293382765</v>
+        <v>135856.33293382768</v>
       </c>
       <c r="I132" s="92">
         <f ca="1">I125-I130</f>
-        <v>145405.28729184478</v>
+        <v>145405.28729184484</v>
       </c>
       <c r="J132" s="92">
         <f ca="1">J125-J130</f>
-        <v>155625.41043060564</v>
+        <v>155625.41043060555</v>
       </c>
     </row>
     <row r="133" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13441,7 +13439,7 @@
       </c>
       <c r="H137" s="182">
         <f t="shared" ca="1" si="73"/>
-        <v>10805.707649352618</v>
+        <v>10805.707649352655</v>
       </c>
       <c r="I137" s="182">
         <f t="shared" ca="1" si="73"/>
@@ -13449,7 +13447,7 @@
       </c>
       <c r="J137" s="182">
         <f t="shared" ca="1" si="73"/>
-        <v>12187.343187256558</v>
+        <v>12187.343187256534</v>
       </c>
     </row>
     <row r="138" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13471,19 +13469,19 @@
       </c>
       <c r="G138" s="182">
         <f t="shared" ref="G138:J138" ca="1" si="74">G103+G105</f>
-        <v>10790.0097441494</v>
+        <v>10790.009744149418</v>
       </c>
       <c r="H138" s="182">
         <f t="shared" ca="1" si="74"/>
-        <v>11414.569884763554</v>
+        <v>11414.56988476355</v>
       </c>
       <c r="I138" s="182">
         <f t="shared" ca="1" si="74"/>
-        <v>11309.853434452496</v>
+        <v>11309.853434452485</v>
       </c>
       <c r="J138" s="182">
         <f t="shared" ca="1" si="74"/>
-        <v>11511.280269680719</v>
+        <v>11511.280269680738</v>
       </c>
     </row>
     <row r="139" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13568,19 +13566,19 @@
       </c>
       <c r="G141" s="90">
         <f t="shared" ref="G141:J141" ca="1" si="77">SUM(G137:G140)</f>
-        <v>4326.7043483444795</v>
+        <v>4326.7043483444977</v>
       </c>
       <c r="H141" s="90">
         <f t="shared" ca="1" si="77"/>
-        <v>4262.3688591161736</v>
+        <v>4262.3688591162063</v>
       </c>
       <c r="I141" s="90">
         <f t="shared" ca="1" si="77"/>
-        <v>6219.5259126900401</v>
+        <v>6219.5259126900291</v>
       </c>
       <c r="J141" s="90">
         <f t="shared" ca="1" si="77"/>
-        <v>5193.8766427497758</v>
+        <v>5193.8766427497721</v>
       </c>
     </row>
     <row r="142" spans="1:12" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -13716,19 +13714,19 @@
       </c>
       <c r="G147" s="92">
         <f t="shared" ref="G147:J147" ca="1" si="80">-MAX(0,G141+G157)</f>
-        <v>-4326.7043483444795</v>
+        <v>-4326.7043483444977</v>
       </c>
       <c r="H147" s="92">
         <f t="shared" ca="1" si="80"/>
-        <v>-4262.3688591161736</v>
+        <v>-4262.3688591162063</v>
       </c>
       <c r="I147" s="92">
         <f t="shared" ca="1" si="80"/>
-        <v>-6219.5259126900401</v>
+        <v>-6219.5259126900291</v>
       </c>
       <c r="J147" s="92">
         <f t="shared" ca="1" si="80"/>
-        <v>-5193.8766427497758</v>
+        <v>-5193.8766427497721</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -14905,28 +14903,28 @@
       <c r="C197" s="13"/>
       <c r="D197" s="123"/>
       <c r="E197" s="78">
-        <f>-(E115+E103+E106+E109+E110+E111+E156)</f>
-        <v>-12096</v>
+        <f>-(E141)</f>
+        <v>-8784</v>
       </c>
       <c r="F197" s="78">
-        <f t="shared" ref="F197:J197" ca="1" si="99">-(F115+F103+F106+F109+F110+F111+F156)</f>
-        <v>-10167.193354195082</v>
+        <f t="shared" ref="F197:J197" ca="1" si="99">-(F141)</f>
+        <v>-2729.5924346249521</v>
       </c>
       <c r="G197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-10805.707649352618</v>
+        <v>-4326.7043483444977</v>
       </c>
       <c r="H197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-11475.526586987547</v>
+        <v>-4262.3688591162063</v>
       </c>
       <c r="I197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-12187.343187256552</v>
+        <v>-6219.5259126900291</v>
       </c>
       <c r="J197" s="78">
         <f t="shared" ca="1" si="99"/>
-        <v>-12948.941651758849</v>
+        <v>-5193.8766427497721</v>
       </c>
     </row>
     <row r="198" spans="1:10" s="1" customFormat="1" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15083,19 +15081,19 @@
       </c>
       <c r="G205" s="78">
         <f t="shared" ca="1" si="102"/>
-        <v>126934.47082967387</v>
+        <v>126934.4708296739</v>
       </c>
       <c r="H205" s="78">
         <f t="shared" ca="1" si="102"/>
-        <v>135856.33293382765</v>
+        <v>135856.33293382768</v>
       </c>
       <c r="I205" s="78">
         <f t="shared" ca="1" si="102"/>
-        <v>145405.28729184484</v>
+        <v>145405.28729184478</v>
       </c>
       <c r="J205" s="78">
         <f t="shared" ca="1" si="102"/>
-        <v>155625.41043060564</v>
+        <v>155625.41043060555</v>
       </c>
     </row>
     <row r="206" spans="1:10" s="1" customFormat="1" ht="13.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -15117,19 +15115,19 @@
       </c>
       <c r="G206" s="78">
         <f t="shared" ca="1" si="103"/>
-        <v>95200.853122255401</v>
+        <v>95200.853122255416</v>
       </c>
       <c r="H206" s="78">
         <f t="shared" ca="1" si="103"/>
-        <v>101892.24970037074</v>
+        <v>101892.24970037077</v>
       </c>
       <c r="I206" s="78">
         <f t="shared" ca="1" si="103"/>
-        <v>109053.96546888363</v>
+        <v>109053.96546888359</v>
       </c>
       <c r="J206" s="78">
         <f t="shared" ca="1" si="103"/>
-        <v>116719.05782295423</v>
+        <v>116719.05782295417</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="1" customFormat="1" ht="13.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -16176,7 +16174,7 @@
       </c>
       <c r="H256" s="188">
         <f t="shared" ca="1" si="128"/>
-        <v>0.84715452006979997</v>
+        <v>0.84715452006979985</v>
       </c>
       <c r="I256" s="188">
         <f t="shared" ca="1" si="128"/>
@@ -16184,7 +16182,7 @@
       </c>
       <c r="J256" s="188">
         <f t="shared" ca="1" si="128"/>
-        <v>0.84633081546277822</v>
+        <v>0.84633081546277855</v>
       </c>
       <c r="K256" s="226" t="s">
         <v>207</v>
@@ -16289,7 +16287,7 @@
       </c>
       <c r="G260" s="188">
         <f t="shared" ca="1" si="129"/>
-        <v>0.86905662364118319</v>
+        <v>0.86905662364118286</v>
       </c>
       <c r="H260" s="188">
         <f t="shared" ca="1" si="129"/>
@@ -16297,7 +16295,7 @@
       </c>
       <c r="I260" s="188">
         <f t="shared" ca="1" si="129"/>
-        <v>0.83821741118919024</v>
+        <v>0.83821741118919058</v>
       </c>
       <c r="J260" s="188">
         <f t="shared" ca="1" si="129"/>
@@ -16776,7 +16774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197:J197">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16802,7 +16800,7 @@
   </sheetPr>
   <dimension ref="B1:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16922,7 +16920,7 @@
       </c>
       <c r="U6" s="246">
         <f ca="1">'Yearly Cash Flow'!G103</f>
-        <v>33019.214582325862</v>
+        <v>33019.214582325847</v>
       </c>
       <c r="V6" s="246">
         <f ca="1">'Yearly Cash Flow'!H103</f>
@@ -16950,19 +16948,19 @@
       </c>
       <c r="U7" s="246">
         <f ca="1">'Yearly Cash Flow'!G106</f>
-        <v>-22229.204838176443</v>
+        <v>-22229.204838176447</v>
       </c>
       <c r="V7" s="246">
         <f ca="1">'Yearly Cash Flow'!H106</f>
-        <v>-23791.632277743436</v>
+        <v>-23791.63227774344</v>
       </c>
       <c r="W7" s="246">
         <f ca="1">'Yearly Cash Flow'!I106</f>
-        <v>-25463.878288045784</v>
+        <v>-25463.878288045773</v>
       </c>
       <c r="X7" s="246">
         <f ca="1">'Yearly Cash Flow'!J106</f>
-        <v>-27253.661703362079</v>
+        <v>-27253.661703362061</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -16978,19 +16976,19 @@
       </c>
       <c r="U8" s="246">
         <f ca="1">'Yearly Cash Flow'!G112</f>
-        <v>-10151.49544899186</v>
+        <v>-10151.495448991842</v>
       </c>
       <c r="V8" s="246">
         <f ca="1">'Yearly Cash Flow'!H112</f>
-        <v>-10744.750947128661</v>
+        <v>-10744.750947128628</v>
       </c>
       <c r="W8" s="246">
         <f ca="1">'Yearly Cash Flow'!I112</f>
-        <v>-10598.036834183484</v>
+        <v>-10598.036834183493</v>
       </c>
       <c r="X8" s="246">
         <f ca="1">'Yearly Cash Flow'!J112</f>
-        <v>-10749.681805178427</v>
+        <v>-10749.681805178428</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -17007,15 +17005,15 @@
       </c>
       <c r="V9" s="236">
         <f t="shared" ca="1" si="1"/>
-        <v>669.81893763489279</v>
+        <v>669.81893763492189</v>
       </c>
       <c r="W9" s="236">
         <f t="shared" ca="1" si="1"/>
-        <v>711.81660026900136</v>
+        <v>711.81660026900317</v>
       </c>
       <c r="X9" s="236">
         <f t="shared" ca="1" si="1"/>
-        <v>761.5984645022927</v>
+        <v>761.59846450230907</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -17036,15 +17034,15 @@
       </c>
       <c r="V10" s="237">
         <f t="shared" ca="1" si="2"/>
-        <v>11475.526586987529</v>
+        <v>11475.526586987558</v>
       </c>
       <c r="W10" s="237">
         <f t="shared" ca="1" si="2"/>
-        <v>12187.343187256531</v>
+        <v>12187.343187256562</v>
       </c>
       <c r="X10" s="237">
         <f t="shared" ca="1" si="2"/>
-        <v>12948.941651758823</v>
+        <v>12948.941651758871</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -19001,22 +18999,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>$D$26&lt;=$I$27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>$D$26&lt;=$I$26</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$D$26&lt;=$I$25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>$D$26&lt;=$I$24</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$D$26&lt;=$I$23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>"&lt;=$O$21&gt;=$N$21"</formula>
     </cfRule>
   </conditionalFormatting>
